--- a/data/results/quantile/Test_output_7.xlsx
+++ b/data/results/quantile/Test_output_7.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2954,22 +2954,22 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>0.5208950430403649</v>
+        <v>0.5311072639503025</v>
       </c>
       <c r="C110" t="n">
-        <v>0.4448439807667189</v>
+        <v>0.4458809553701318</v>
       </c>
       <c r="D110" t="n">
-        <v>0.3196548999213235</v>
+        <v>0.3117622637433618</v>
       </c>
       <c r="E110" t="n">
-        <v>0.4793367430458367</v>
+        <v>0.415192135009864</v>
       </c>
       <c r="F110" t="n">
-        <v>0.6155951022566761</v>
+        <v>0.6841068669640428</v>
       </c>
       <c r="G110" t="n">
-        <v>0.3939892758817305</v>
+        <v>0.4103663887319502</v>
       </c>
     </row>
     <row r="111">
@@ -2977,22 +2977,22 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>0.6415244150033985</v>
+        <v>0.5989675714904967</v>
       </c>
       <c r="C111" t="n">
-        <v>0.3652788905183496</v>
+        <v>0.3685893015565306</v>
       </c>
       <c r="D111" t="n">
-        <v>0.3643302649293982</v>
+        <v>0.3532279617842076</v>
       </c>
       <c r="E111" t="n">
-        <v>0.6123718715024303</v>
+        <v>0.4835499870636639</v>
       </c>
       <c r="F111" t="n">
-        <v>0.4099031767665756</v>
+        <v>0.481438495063757</v>
       </c>
       <c r="G111" t="n">
-        <v>0.5941458229377038</v>
+        <v>0.5964373192872123</v>
       </c>
     </row>
     <row r="112">
@@ -3000,22 +3000,22 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>0.5628627889107038</v>
+        <v>0.5406261701830696</v>
       </c>
       <c r="C112" t="n">
-        <v>0.5078834153354956</v>
+        <v>0.5044446459570129</v>
       </c>
       <c r="D112" t="n">
-        <v>0.2742236496740561</v>
+        <v>0.3514821575045718</v>
       </c>
       <c r="E112" t="n">
-        <v>0.418294709417418</v>
+        <v>0.4677146277581603</v>
       </c>
       <c r="F112" t="n">
-        <v>0.4717919203111306</v>
+        <v>0.5243475926997534</v>
       </c>
       <c r="G112" t="n">
-        <v>0.4416489085032447</v>
+        <v>0.4387575018676739</v>
       </c>
     </row>
     <row r="113">
@@ -3023,22 +3023,22 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>0.5590138089952001</v>
+        <v>0.5395262159679587</v>
       </c>
       <c r="C113" t="n">
-        <v>0.5906488169489827</v>
+        <v>0.5833537013932951</v>
       </c>
       <c r="D113" t="n">
-        <v>0.4201548181634637</v>
+        <v>0.5077340513404587</v>
       </c>
       <c r="E113" t="n">
-        <v>0.4678446980578496</v>
+        <v>0.4475219737211086</v>
       </c>
       <c r="F113" t="n">
-        <v>0.5376656181426083</v>
+        <v>0.5005985594439306</v>
       </c>
       <c r="G113" t="n">
-        <v>0.4754888879619018</v>
+        <v>0.4994696397551718</v>
       </c>
     </row>
     <row r="114">
@@ -3046,22 +3046,22 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>0.4940319891780668</v>
+        <v>0.5263951575977937</v>
       </c>
       <c r="C114" t="n">
-        <v>0.6064333374073216</v>
+        <v>0.5963166109772042</v>
       </c>
       <c r="D114" t="n">
-        <v>0.3647688071020723</v>
+        <v>0.3251064405489287</v>
       </c>
       <c r="E114" t="n">
-        <v>0.4998547802576419</v>
+        <v>0.5779674778019965</v>
       </c>
       <c r="F114" t="n">
-        <v>0.6516025237777914</v>
+        <v>0.6279834267894615</v>
       </c>
       <c r="G114" t="n">
-        <v>0.6419666801947446</v>
+        <v>0.6229058514101962</v>
       </c>
     </row>
     <row r="115">
@@ -3069,22 +3069,22 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>0.6067145046341771</v>
+        <v>0.5782143728274972</v>
       </c>
       <c r="C115" t="n">
-        <v>0.5939752929551879</v>
+        <v>0.5831865838158554</v>
       </c>
       <c r="D115" t="n">
-        <v>0.6171115447690936</v>
+        <v>0.6353585188446316</v>
       </c>
       <c r="E115" t="n">
-        <v>0.4615054320785533</v>
+        <v>0.4872533913144724</v>
       </c>
       <c r="F115" t="n">
-        <v>0.5053595770187241</v>
+        <v>0.475782471739591</v>
       </c>
       <c r="G115" t="n">
-        <v>0.5499609516651301</v>
+        <v>0.5504707260474788</v>
       </c>
     </row>
     <row r="116">
@@ -3092,22 +3092,22 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>0.5429560154660233</v>
+        <v>0.5295678156809343</v>
       </c>
       <c r="C116" t="n">
-        <v>0.4034005965371816</v>
+        <v>0.4067302088274282</v>
       </c>
       <c r="D116" t="n">
-        <v>0.3182070882145615</v>
+        <v>0.310491270281454</v>
       </c>
       <c r="E116" t="n">
-        <v>0.4194988783076168</v>
+        <v>0.4277630732627004</v>
       </c>
       <c r="F116" t="n">
-        <v>0.6201217774387605</v>
+        <v>0.4756584814752831</v>
       </c>
       <c r="G116" t="n">
-        <v>0.5582872081731816</v>
+        <v>0.582062492849159</v>
       </c>
     </row>
     <row r="117">
@@ -3115,22 +3115,22 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>0.4674505424842099</v>
+        <v>0.5210574995615616</v>
       </c>
       <c r="C117" t="n">
-        <v>0.4302577272903484</v>
+        <v>0.4320384195477137</v>
       </c>
       <c r="D117" t="n">
-        <v>0.6222183249624719</v>
+        <v>0.5613157657029042</v>
       </c>
       <c r="E117" t="n">
-        <v>0.4904042714054889</v>
+        <v>0.4734853974152271</v>
       </c>
       <c r="F117" t="n">
-        <v>0.4844919228661553</v>
+        <v>0.6244050680607058</v>
       </c>
       <c r="G117" t="n">
-        <v>0.2478883221129883</v>
+        <v>0.2674411173329596</v>
       </c>
     </row>
     <row r="118">
@@ -3138,22 +3138,22 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>0.661912570114358</v>
+        <v>0.6294870863567141</v>
       </c>
       <c r="C118" t="n">
-        <v>0.4144296836602985</v>
+        <v>0.4243794793071703</v>
       </c>
       <c r="D118" t="n">
-        <v>0.2439352104783284</v>
+        <v>0.3084342214455003</v>
       </c>
       <c r="E118" t="n">
-        <v>0.3951736484046256</v>
+        <v>0.4676863596376145</v>
       </c>
       <c r="F118" t="n">
-        <v>0.5925293499050475</v>
+        <v>0.6692612106224223</v>
       </c>
       <c r="G118" t="n">
-        <v>0.6347927895374379</v>
+        <v>0.6569259395291958</v>
       </c>
     </row>
     <row r="119">
@@ -3161,22 +3161,22 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>0.529767003177871</v>
+        <v>0.558030530933463</v>
       </c>
       <c r="C119" t="n">
-        <v>0.4798064297196289</v>
+        <v>0.4829004379365341</v>
       </c>
       <c r="D119" t="n">
-        <v>0.5597592577906962</v>
+        <v>0.5931500884031647</v>
       </c>
       <c r="E119" t="n">
-        <v>0.4857392313901239</v>
+        <v>0.5520351890375251</v>
       </c>
       <c r="F119" t="n">
-        <v>0.5011670052981408</v>
+        <v>0.4854374636441298</v>
       </c>
       <c r="G119" t="n">
-        <v>0.4457822494631802</v>
+        <v>0.4660133189947488</v>
       </c>
     </row>
     <row r="120">
@@ -3184,22 +3184,22 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>0.5742781710213049</v>
+        <v>0.5827349190115152</v>
       </c>
       <c r="C120" t="n">
-        <v>0.3996729059371493</v>
+        <v>0.4031133104308817</v>
       </c>
       <c r="D120" t="n">
-        <v>0.4128703678048427</v>
+        <v>0.488958860714524</v>
       </c>
       <c r="E120" t="n">
-        <v>0.5283206503021494</v>
+        <v>0.615958607864965</v>
       </c>
       <c r="F120" t="n">
-        <v>0.5100997489789085</v>
+        <v>0.4290104577265628</v>
       </c>
       <c r="G120" t="n">
-        <v>0.4484496305795176</v>
+        <v>0.4715768110987522</v>
       </c>
     </row>
     <row r="121">
@@ -3207,22 +3207,22 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>0.5013592276952693</v>
+        <v>0.5271742879355081</v>
       </c>
       <c r="C121" t="n">
-        <v>0.4659703794450522</v>
+        <v>0.4655196973461203</v>
       </c>
       <c r="D121" t="n">
-        <v>0.7208900435107667</v>
+        <v>0.7258203125422877</v>
       </c>
       <c r="E121" t="n">
-        <v>0.5291767971767363</v>
+        <v>0.5637195460204698</v>
       </c>
       <c r="F121" t="n">
-        <v>0.5821702789469994</v>
+        <v>0.4964371285864529</v>
       </c>
       <c r="G121" t="n">
-        <v>0.3759088496426506</v>
+        <v>0.3778243515916586</v>
       </c>
     </row>
   </sheetData>
